--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,10 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Fgf7</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -531,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H2">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I2">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J2">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>6.578159626802222</v>
+        <v>0.04663983539066666</v>
       </c>
       <c r="R2">
-        <v>59.20343664122</v>
+        <v>0.4197585185159999</v>
       </c>
       <c r="S2">
-        <v>0.2033390162711643</v>
+        <v>0.001935523707144116</v>
       </c>
       <c r="T2">
-        <v>0.2033390162711642</v>
+        <v>0.001935523707144117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H3">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I3">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J3">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>19.02221726306889</v>
+        <v>0.4800441959618889</v>
       </c>
       <c r="R3">
-        <v>171.19995536762</v>
+        <v>4.320397763657</v>
       </c>
       <c r="S3">
-        <v>0.5880001649411296</v>
+        <v>0.01992153089689305</v>
       </c>
       <c r="T3">
-        <v>0.5880001649411295</v>
+        <v>0.01992153089689306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H4">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I4">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J4">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>5.406885225180001</v>
+        <v>0.04949223520877778</v>
       </c>
       <c r="R4">
-        <v>48.66196702662</v>
+        <v>0.445430116879</v>
       </c>
       <c r="S4">
-        <v>0.167133481878373</v>
+        <v>0.002053896497784635</v>
       </c>
       <c r="T4">
-        <v>0.1671334818783729</v>
+        <v>0.002053896497784635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H5">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I5">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J5">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>0.06174923134844444</v>
+        <v>1.848148752506667</v>
       </c>
       <c r="R5">
-        <v>0.555743082136</v>
+        <v>16.63333877256</v>
       </c>
       <c r="S5">
-        <v>0.001908744796452587</v>
+        <v>0.07669700578577336</v>
       </c>
       <c r="T5">
-        <v>0.001908744796452586</v>
+        <v>0.07669700578577338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +776,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H6">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I6">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J6">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +809,22 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
-        <v>0.1785616891617778</v>
+        <v>19.02221726306889</v>
       </c>
       <c r="R6">
-        <v>1.607055202456</v>
+        <v>171.19995536762</v>
       </c>
       <c r="S6">
-        <v>0.005519561743369191</v>
+        <v>0.7894100004153046</v>
       </c>
       <c r="T6">
-        <v>0.00551956174336919</v>
+        <v>0.7894100004153048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H7">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I7">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J7">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>0.05075447018400001</v>
+        <v>1.961177864237778</v>
       </c>
       <c r="R7">
-        <v>0.456790231656</v>
+        <v>17.65060077814</v>
       </c>
       <c r="S7">
-        <v>0.001568883186800324</v>
+        <v>0.08138764252410083</v>
       </c>
       <c r="T7">
-        <v>0.001568883186800323</v>
+        <v>0.08138764252410086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H8">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I8">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J8">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N8">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q8">
-        <v>0.1929464542014445</v>
+        <v>0.01734858552533334</v>
       </c>
       <c r="R8">
-        <v>1.736518087813</v>
+        <v>0.156137269728</v>
       </c>
       <c r="S8">
-        <v>0.00596421254821437</v>
+        <v>0.0007199553405031854</v>
       </c>
       <c r="T8">
-        <v>0.005964212548214369</v>
+        <v>0.0007199553405031855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +962,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H9">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I9">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J9">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +995,22 @@
         <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P9">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q9">
-        <v>0.5579477513747778</v>
+        <v>0.1785616891617778</v>
       </c>
       <c r="R9">
-        <v>5.021529762373</v>
+        <v>1.607055202456</v>
       </c>
       <c r="S9">
-        <v>0.0172468522096973</v>
+        <v>0.007410197305916767</v>
       </c>
       <c r="T9">
-        <v>0.01724685220969729</v>
+        <v>0.007410197305916768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H10">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I10">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J10">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N10">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q10">
-        <v>0.1585913677470001</v>
+        <v>0.01840959060355556</v>
       </c>
       <c r="R10">
-        <v>1.427322309723</v>
+        <v>0.165686315432</v>
       </c>
       <c r="S10">
-        <v>0.004902254511335074</v>
+        <v>0.0007639863810310507</v>
       </c>
       <c r="T10">
-        <v>0.004902254511335072</v>
+        <v>0.0007639863810310508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H11">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I11">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J11">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N11">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q11">
-        <v>0.03031343529944445</v>
+        <v>0.03842661603333333</v>
       </c>
       <c r="R11">
-        <v>0.2728209176950001</v>
+        <v>0.3458395443</v>
       </c>
       <c r="S11">
-        <v>0.0009370256216456427</v>
+        <v>0.001594680291961849</v>
       </c>
       <c r="T11">
-        <v>0.0009370256216456424</v>
+        <v>0.001594680291961849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H12">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I12">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J12">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1181,22 @@
         <v>3.276869</v>
       </c>
       <c r="O12">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P12">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q12">
-        <v>0.08765806623277779</v>
+        <v>0.3955089858861111</v>
       </c>
       <c r="R12">
-        <v>0.788922596095</v>
+        <v>3.559580872975</v>
       </c>
       <c r="S12">
-        <v>0.002709618794196145</v>
+        <v>0.01641337307816244</v>
       </c>
       <c r="T12">
-        <v>0.002709618794196144</v>
+        <v>0.01641337307816244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1210,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H13">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I13">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J13">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N13">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q13">
-        <v>0.02491597570500001</v>
+        <v>0.04077671164722223</v>
       </c>
       <c r="R13">
-        <v>0.2242437813450001</v>
+        <v>0.3669904048250001</v>
       </c>
       <c r="S13">
-        <v>0.0007701834976226939</v>
+        <v>0.001692207775423928</v>
       </c>
       <c r="T13">
-        <v>0.0007701834976226936</v>
+        <v>0.001692207775423929</v>
       </c>
     </row>
   </sheetData>
